--- a/software/data/processed_data/staging_xls/Scene Capture - SUB1 - S1 - T2 - CC - OK-Avatar-RawPpg-2025-06-18-12-35-57.xlsx
+++ b/software/data/processed_data/staging_xls/Scene Capture - SUB1 - S1 - T2 - CC - OK-Avatar-RawPpg-2025-06-18-12-35-57.xlsx
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1292,7 +1292,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1740,7 +1740,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1796,7 +1796,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1964,7 +1964,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2132,7 +2132,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2244,7 +2244,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2300,7 +2300,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2412,7 +2412,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2636,7 +2636,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2804,7 +2804,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2916,7 +2916,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2972,7 +2972,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3084,7 +3084,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3140,7 +3140,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3308,7 +3308,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3644,7 +3644,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3756,7 +3756,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3924,7 +3924,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3980,7 +3980,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4092,7 +4092,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4148,7 +4148,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4260,7 +4260,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4316,7 +4316,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4428,7 +4428,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4484,7 +4484,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4596,7 +4596,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4652,7 +4652,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4708,7 +4708,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4820,7 +4820,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4932,7 +4932,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4988,7 +4988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5100,7 +5100,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5212,7 +5212,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5324,7 +5324,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5380,7 +5380,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5436,7 +5436,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5492,7 +5492,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5548,7 +5548,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5604,7 +5604,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5660,7 +5660,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5772,7 +5772,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5828,7 +5828,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5940,7 +5940,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5996,7 +5996,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6108,7 +6108,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6164,7 +6164,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6220,7 +6220,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6276,7 +6276,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6332,7 +6332,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6388,7 +6388,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6444,7 +6444,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6500,7 +6500,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6556,7 +6556,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6612,7 +6612,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6724,7 +6724,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6780,7 +6780,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6836,7 +6836,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6892,7 +6892,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7004,7 +7004,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7060,7 +7060,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7116,7 +7116,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7172,7 +7172,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7228,7 +7228,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7284,7 +7284,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7340,7 +7340,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7396,7 +7396,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7452,7 +7452,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7564,7 +7564,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7620,7 +7620,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7676,7 +7676,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7732,7 +7732,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7788,7 +7788,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7844,7 +7844,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7900,7 +7900,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8012,7 +8012,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8068,7 +8068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8124,7 +8124,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8236,7 +8236,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8292,7 +8292,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8348,7 +8348,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8404,7 +8404,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -8460,7 +8460,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8516,7 +8516,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -8572,7 +8572,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8684,7 +8684,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8740,7 +8740,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8796,7 +8796,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8852,7 +8852,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8908,7 +8908,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8964,7 +8964,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -9020,7 +9020,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9132,7 +9132,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9188,7 +9188,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9244,7 +9244,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -9300,7 +9300,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9356,7 +9356,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -9412,7 +9412,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -9468,7 +9468,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -9524,7 +9524,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -9580,7 +9580,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -9636,7 +9636,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -9692,7 +9692,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -9748,7 +9748,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9804,7 +9804,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9860,7 +9860,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -9916,7 +9916,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -9972,7 +9972,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -10028,7 +10028,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -10084,7 +10084,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -10140,7 +10140,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -10196,7 +10196,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -10252,7 +10252,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -10308,7 +10308,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -10364,7 +10364,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -10420,7 +10420,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10476,7 +10476,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10532,7 +10532,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -10588,7 +10588,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -10644,7 +10644,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -10700,7 +10700,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -10756,7 +10756,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -10812,7 +10812,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -10868,7 +10868,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10924,7 +10924,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -10980,7 +10980,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -11036,7 +11036,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -11092,7 +11092,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -11148,7 +11148,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -11204,7 +11204,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11260,7 +11260,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -11316,7 +11316,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -11372,7 +11372,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -11428,7 +11428,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -11484,7 +11484,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11540,7 +11540,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11596,7 +11596,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11652,7 +11652,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11708,7 +11708,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -11764,7 +11764,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11820,7 +11820,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -11876,7 +11876,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -11932,7 +11932,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -12044,7 +12044,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12100,7 +12100,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -12156,7 +12156,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -12212,7 +12212,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -12268,7 +12268,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -12324,7 +12324,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -12380,7 +12380,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -12436,7 +12436,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -12492,7 +12492,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -12548,7 +12548,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12604,7 +12604,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12660,7 +12660,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -12716,7 +12716,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -12772,7 +12772,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -12828,7 +12828,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -12884,7 +12884,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -12940,7 +12940,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -12996,7 +12996,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -13052,7 +13052,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -13108,7 +13108,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -13164,7 +13164,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -13220,7 +13220,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -13276,7 +13276,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -13332,7 +13332,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -13388,7 +13388,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -13444,7 +13444,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -13500,7 +13500,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -13556,7 +13556,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -13612,7 +13612,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -13668,7 +13668,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -13724,7 +13724,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -13780,7 +13780,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -13836,7 +13836,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -13892,7 +13892,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -13948,7 +13948,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -14004,7 +14004,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -14060,7 +14060,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -14116,7 +14116,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -14172,7 +14172,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -14228,7 +14228,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -14284,7 +14284,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -14340,7 +14340,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -14396,7 +14396,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -14452,7 +14452,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -14508,7 +14508,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -14564,7 +14564,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -14620,7 +14620,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -14676,7 +14676,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -14732,7 +14732,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -14788,7 +14788,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -14844,7 +14844,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -14900,7 +14900,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -14956,7 +14956,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -15012,7 +15012,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -15068,7 +15068,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -15124,7 +15124,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -15180,7 +15180,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -15236,7 +15236,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -15292,7 +15292,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -15348,7 +15348,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -15404,7 +15404,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -15460,7 +15460,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -15516,7 +15516,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -15572,7 +15572,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -15628,7 +15628,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -15684,7 +15684,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -15740,7 +15740,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -15796,7 +15796,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -15852,7 +15852,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -15908,7 +15908,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -15964,7 +15964,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -16020,7 +16020,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -16076,7 +16076,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -16132,7 +16132,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -16188,7 +16188,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -16244,7 +16244,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -16300,7 +16300,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -16356,7 +16356,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -16412,7 +16412,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -16468,7 +16468,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -16524,7 +16524,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -16580,7 +16580,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -16636,7 +16636,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -16692,7 +16692,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -16748,7 +16748,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -16804,7 +16804,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -16860,7 +16860,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -16916,7 +16916,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -16972,7 +16972,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -17028,7 +17028,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -17084,7 +17084,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -17140,7 +17140,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -17196,7 +17196,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -17252,7 +17252,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -17308,7 +17308,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -17364,7 +17364,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -17420,7 +17420,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -17476,7 +17476,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -17532,7 +17532,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -17588,7 +17588,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -17644,7 +17644,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -17700,7 +17700,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -17756,7 +17756,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -17812,7 +17812,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -17868,7 +17868,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -17924,7 +17924,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -17980,7 +17980,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -18036,7 +18036,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -18092,7 +18092,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -18148,7 +18148,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -18204,7 +18204,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -18260,7 +18260,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -18316,7 +18316,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -18372,7 +18372,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -18428,7 +18428,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -18484,7 +18484,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -18540,7 +18540,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -18596,7 +18596,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -18652,7 +18652,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -18708,7 +18708,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -18764,7 +18764,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -18820,7 +18820,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -18876,7 +18876,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -18932,7 +18932,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -18988,7 +18988,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -19044,7 +19044,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -19100,7 +19100,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -19156,7 +19156,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -19212,7 +19212,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -19268,7 +19268,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -19324,7 +19324,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -19380,7 +19380,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -19436,7 +19436,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -19492,7 +19492,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -19548,7 +19548,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -19604,7 +19604,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -19660,7 +19660,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -19716,7 +19716,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -19772,7 +19772,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -19828,7 +19828,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -19884,7 +19884,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -19940,7 +19940,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -19996,7 +19996,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -20052,7 +20052,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -20108,7 +20108,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -20164,7 +20164,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -20220,7 +20220,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -20276,7 +20276,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -20332,7 +20332,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -20388,7 +20388,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -20444,7 +20444,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -20500,7 +20500,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -20556,7 +20556,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -20612,7 +20612,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -20668,7 +20668,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -20724,7 +20724,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -20780,7 +20780,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -20836,7 +20836,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -20892,7 +20892,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -20948,7 +20948,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -21004,7 +21004,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -21060,7 +21060,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -21116,7 +21116,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -21172,7 +21172,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -21228,7 +21228,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -21284,7 +21284,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -21340,7 +21340,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -21396,7 +21396,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -21452,7 +21452,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -21508,7 +21508,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -21564,7 +21564,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -21620,7 +21620,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -21676,7 +21676,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -21732,7 +21732,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -21788,7 +21788,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -21844,7 +21844,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -21900,7 +21900,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -21956,7 +21956,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -22012,7 +22012,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -22068,7 +22068,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -22124,7 +22124,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -22180,7 +22180,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -22236,7 +22236,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -22292,7 +22292,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -22348,7 +22348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -22404,7 +22404,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -22460,7 +22460,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -22516,7 +22516,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -22572,7 +22572,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -22628,7 +22628,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -22684,7 +22684,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -22740,7 +22740,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -22796,7 +22796,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -22852,7 +22852,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -22908,7 +22908,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -22964,7 +22964,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -23020,7 +23020,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -23076,7 +23076,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -23132,7 +23132,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -23188,7 +23188,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -23244,7 +23244,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -23300,7 +23300,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -23356,7 +23356,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -23412,7 +23412,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -23468,7 +23468,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -23524,7 +23524,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -23580,7 +23580,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -23636,7 +23636,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -23692,7 +23692,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -23748,7 +23748,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -23804,7 +23804,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -23860,7 +23860,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -23916,7 +23916,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -23972,7 +23972,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -24028,7 +24028,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -24084,7 +24084,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -24140,7 +24140,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -24196,7 +24196,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -24252,7 +24252,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -24308,7 +24308,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -24364,7 +24364,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -24420,7 +24420,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -24476,7 +24476,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -24532,7 +24532,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -24644,7 +24644,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -24700,7 +24700,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -24756,7 +24756,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -24812,7 +24812,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -24868,7 +24868,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -24924,7 +24924,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -24980,7 +24980,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -25036,7 +25036,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -25092,7 +25092,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -25148,7 +25148,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -25204,7 +25204,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -25260,7 +25260,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -25316,7 +25316,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -25372,7 +25372,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -25428,7 +25428,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -25484,7 +25484,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -25540,7 +25540,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -25596,7 +25596,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -25652,7 +25652,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -25708,7 +25708,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -25764,7 +25764,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -25820,7 +25820,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -25876,7 +25876,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -25932,7 +25932,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -25988,7 +25988,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -26044,7 +26044,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -26100,7 +26100,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -26156,7 +26156,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -26212,7 +26212,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -26268,7 +26268,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -26324,7 +26324,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -26380,7 +26380,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -26436,7 +26436,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -26492,7 +26492,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -26548,7 +26548,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -26604,7 +26604,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -26660,7 +26660,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -26716,7 +26716,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -26772,7 +26772,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -26828,7 +26828,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -26884,7 +26884,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -26940,7 +26940,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -26996,7 +26996,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -27052,7 +27052,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -27108,7 +27108,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -27164,7 +27164,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -27220,7 +27220,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -27276,7 +27276,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -27332,7 +27332,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -27388,7 +27388,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -27444,7 +27444,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -27500,7 +27500,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -27556,7 +27556,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -27612,7 +27612,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -27668,7 +27668,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -27724,7 +27724,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -27780,7 +27780,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -27836,7 +27836,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -27892,7 +27892,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -27948,7 +27948,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -28004,7 +28004,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -28060,7 +28060,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -28116,7 +28116,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -28172,7 +28172,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -28228,7 +28228,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -28284,7 +28284,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -28340,7 +28340,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -28396,7 +28396,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -28452,7 +28452,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -28508,7 +28508,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -28564,7 +28564,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -28620,7 +28620,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -28676,7 +28676,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -28732,7 +28732,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -28788,7 +28788,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -28844,7 +28844,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -28900,7 +28900,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -28956,7 +28956,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -29012,7 +29012,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -29068,7 +29068,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -29124,7 +29124,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -29180,7 +29180,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -29236,7 +29236,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -29292,7 +29292,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -29348,7 +29348,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -29404,7 +29404,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -29460,7 +29460,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -29516,7 +29516,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -29572,7 +29572,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -29628,7 +29628,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -29684,7 +29684,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -29740,7 +29740,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -29796,7 +29796,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -29852,7 +29852,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -29908,7 +29908,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -29964,7 +29964,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
